--- a/CRMPhone/templates/meters.xlsx
+++ b/CRMPhone/templates/meters.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>УК</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Время</t>
   </si>
   <si>
-    <t>Адрес</t>
-  </si>
-  <si>
     <t>Электро Т1</t>
   </si>
   <si>
@@ -52,6 +49,18 @@
   </si>
   <si>
     <t>Отопление</t>
+  </si>
+  <si>
+    <t>Улица</t>
+  </si>
+  <si>
+    <t>Дом</t>
+  </si>
+  <si>
+    <t>Корпус</t>
+  </si>
+  <si>
+    <t>Квартира</t>
   </si>
 </sst>
 </file>
@@ -878,7 +887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,15 +895,18 @@
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -902,32 +914,41 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1"/>
+  <autoFilter ref="A1:M1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>